--- a/data/trans_orig/P14B08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05BC5894-97E5-4FF0-AA30-C21F2E035673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDB335DD-C75C-4497-8B77-AB74421A58E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{88484D68-A00E-4907-B552-1B01D03B6DF2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A7B1E6F9-AEF9-4058-9E77-92786554266D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="208">
   <si>
     <t>Población cuya enfermedad crónica de pulmón le limita en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>87,74%</t>
   </si>
   <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
   </si>
   <si>
     <t>86,17%</t>
   </si>
   <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>87,15%</t>
   </si>
   <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>12,26%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
   </si>
   <si>
     <t>13,83%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>57,49%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
   </si>
   <si>
     <t>55,48%</t>
   </si>
   <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
   </si>
   <si>
     <t>42,51%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
   </si>
   <si>
     <t>48,96%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
   </si>
   <si>
     <t>44,52%</t>
   </si>
   <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -214,55 +214,55 @@
     <t>78,39%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>78,21%</t>
   </si>
   <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
   </si>
   <si>
     <t>22,12%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
   </si>
   <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -274,10 +274,10 @@
     <t>77,98%</t>
   </si>
   <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
   </si>
   <si>
     <t>95,19%</t>
@@ -289,19 +289,19 @@
     <t>85,13%</t>
   </si>
   <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
   </si>
   <si>
     <t>4,81%</t>
@@ -313,58 +313,64 @@
     <t>14,87%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
   </si>
   <si>
     <t>57,57%</t>
   </si>
   <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
   </si>
   <si>
     <t>75,73%</t>
   </si>
   <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
   </si>
   <si>
     <t>64,38%</t>
   </si>
   <si>
-    <t>77,82%</t>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
   </si>
   <si>
     <t>42,43%</t>
   </si>
   <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
   </si>
   <si>
     <t>24,27%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
   </si>
   <si>
     <t>35,62%</t>
   </si>
   <si>
-    <t>22,18%</t>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
   </si>
   <si>
     <t>72,68%</t>
@@ -376,7 +382,7 @@
     <t>85,05%</t>
   </si>
   <si>
-    <t>40,84%</t>
+    <t>33,78%</t>
   </si>
   <si>
     <t>27,32%</t>
@@ -388,61 +394,61 @@
     <t>14,95%</t>
   </si>
   <si>
-    <t>59,16%</t>
+    <t>66,22%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
   </si>
   <si>
     <t>88,02%</t>
   </si>
   <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>76,57%</t>
   </si>
   <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
   </si>
   <si>
     <t>Población cuya enfermedad crónica de pulmón le limita en 2023 (Tasa respuesta: 3,09%)</t>
@@ -451,211 +457,211 @@
     <t>72,34%</t>
   </si>
   <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
   </si>
   <si>
     <t>64,6%</t>
   </si>
   <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
   </si>
   <si>
     <t>68,66%</t>
   </si>
   <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
   </si>
   <si>
     <t>35,4%</t>
   </si>
   <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
   </si>
   <si>
     <t>31,34%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
   </si>
   <si>
     <t>57,09%</t>
   </si>
   <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
   </si>
   <si>
     <t>53,02%</t>
   </si>
   <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
   </si>
   <si>
     <t>54,7%</t>
   </si>
   <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
   </si>
   <si>
     <t>42,91%</t>
   </si>
   <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
   </si>
   <si>
     <t>46,98%</t>
   </si>
   <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
   </si>
   <si>
     <t>45,3%</t>
   </si>
   <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
   </si>
   <si>
     <t>15,22%</t>
   </si>
   <si>
-    <t>50,29%</t>
+    <t>50,97%</t>
   </si>
   <si>
     <t>58,07%</t>
   </si>
   <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
   </si>
   <si>
     <t>35,34%</t>
   </si>
   <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>49,71%</t>
+    <t>49,03%</t>
   </si>
   <si>
     <t>41,93%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
   </si>
   <si>
     <t>64,66%</t>
   </si>
   <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
   </si>
   <si>
     <t>62,48%</t>
   </si>
   <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
   </si>
   <si>
     <t>58,86%</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
   </si>
   <si>
     <t>60,59%</t>
   </si>
   <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
   </si>
   <si>
     <t>37,52%</t>
   </si>
   <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
   </si>
   <si>
     <t>41,14%</t>
   </si>
   <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
   </si>
   <si>
     <t>39,41%</t>
   </si>
   <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0DCC8A-01B2-4C59-AA26-123B00AEE869}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380BFAE5-6131-4260-B7D5-10385E899C9E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1812,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F3D8A3-5B27-48D1-BADF-BF88F0DBF60C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9CE6C5-A2AC-4777-8E65-9D096C0B0153}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2124,10 +2130,10 @@
         <v>99</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,13 +2148,13 @@
         <v>12134</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -2157,13 +2163,13 @@
         <v>4160</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -2172,13 +2178,13 @@
         <v>16294</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,7 +2252,7 @@
         <v>2661</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>54</v>
@@ -2264,7 +2270,7 @@
         <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -2276,10 +2282,10 @@
         <v>5690</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>52</v>
@@ -2297,7 +2303,7 @@
         <v>1000</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>54</v>
@@ -2318,7 +2324,7 @@
         <v>55</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2327,13 +2333,13 @@
         <v>1000</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2407,13 @@
         <v>45810</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -2416,13 +2422,13 @@
         <v>39161</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M13" s="7">
         <v>80</v>
@@ -2431,13 +2437,13 @@
         <v>84971</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,13 +2458,13 @@
         <v>20670</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -2467,13 +2473,13 @@
         <v>5328</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -2482,13 +2488,13 @@
         <v>25998</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,7 +2569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AE28AD-2BBC-4C5D-8161-7888F7F17007}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B73661-4322-487C-8844-949CF1E5AC0A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2580,7 +2586,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2687,13 +2693,13 @@
         <v>36625</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>55</v>
@@ -2702,13 +2708,13 @@
         <v>29662</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>104</v>
@@ -2717,13 +2723,13 @@
         <v>66287</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2744,13 @@
         <v>14001</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -2753,13 +2759,13 @@
         <v>16251</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>48</v>
@@ -2768,13 +2774,13 @@
         <v>30252</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2848,13 @@
         <v>17840</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -2857,13 +2863,13 @@
         <v>23519</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -2872,13 +2878,13 @@
         <v>41359</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2899,13 @@
         <v>13409</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -2908,13 +2914,13 @@
         <v>20842</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -2923,13 +2929,13 @@
         <v>34252</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,13 +3003,13 @@
         <v>1066</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3012,13 +3018,13 @@
         <v>3602</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -3027,13 +3033,13 @@
         <v>4668</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,10 +3054,10 @@
         <v>5941</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>52</v>
@@ -3063,13 +3069,13 @@
         <v>2601</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -3078,13 +3084,13 @@
         <v>8542</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3158,13 @@
         <v>55532</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>90</v>
@@ -3167,13 +3173,13 @@
         <v>56783</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>163</v>
@@ -3182,13 +3188,13 @@
         <v>112315</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3209,13 @@
         <v>33351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -3218,13 +3224,13 @@
         <v>39694</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -3233,13 +3239,13 @@
         <v>73045</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B08-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDB335DD-C75C-4497-8B77-AB74421A58E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB6A29D9-D23B-4D85-A6BC-53940A43826A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A7B1E6F9-AEF9-4058-9E77-92786554266D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{054F22E2-CC08-42C9-8B64-E98495062E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="206">
   <si>
     <t>Población cuya enfermedad crónica de pulmón le limita en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>87,74%</t>
   </si>
   <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
   </si>
   <si>
     <t>86,17%</t>
   </si>
   <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>87,15%</t>
   </si>
   <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>12,26%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
   </si>
   <si>
     <t>13,83%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>57,49%</t>
   </si>
   <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
   </si>
   <si>
     <t>55,48%</t>
   </si>
   <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
   </si>
   <si>
     <t>42,51%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
   </si>
   <si>
     <t>48,96%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
   </si>
   <si>
     <t>44,52%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -214,163 +214,163 @@
     <t>78,39%</t>
   </si>
   <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
   </si>
   <si>
     <t>78,21%</t>
   </si>
   <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>22,12%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
   </si>
   <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya enfermedad crónica de pulmón le limita en 2015 (Tasa respuesta: 1,63%)</t>
+    <t>Población cuya enfermedad crónica de pulmón le limita en 2016 (Tasa respuesta: 1,63%)</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>74,97%</t>
+    <t>72,14%</t>
   </si>
   <si>
     <t>85,13%</t>
   </si>
   <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>25,03%</t>
+    <t>27,86%</t>
   </si>
   <si>
     <t>14,87%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
   </si>
   <si>
     <t>57,57%</t>
   </si>
   <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
   </si>
   <si>
     <t>75,73%</t>
   </si>
   <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
   </si>
   <si>
     <t>64,38%</t>
   </si>
   <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
   </si>
   <si>
     <t>42,43%</t>
   </si>
   <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
   </si>
   <si>
     <t>24,27%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
   </si>
   <si>
     <t>35,62%</t>
   </si>
   <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
   </si>
   <si>
     <t>72,68%</t>
@@ -382,7 +382,7 @@
     <t>85,05%</t>
   </si>
   <si>
-    <t>33,78%</t>
+    <t>34,22%</t>
   </si>
   <si>
     <t>27,32%</t>
@@ -394,61 +394,61 @@
     <t>14,95%</t>
   </si>
   <si>
-    <t>66,22%</t>
+    <t>65,78%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
   </si>
   <si>
     <t>88,02%</t>
   </si>
   <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>76,57%</t>
   </si>
   <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
   </si>
   <si>
     <t>Población cuya enfermedad crónica de pulmón le limita en 2023 (Tasa respuesta: 3,09%)</t>
@@ -622,9 +622,6 @@
     <t>58,86%</t>
   </si>
   <si>
-    <t>49,51%</t>
-  </si>
-  <si>
     <t>67,38%</t>
   </si>
   <si>
@@ -650,9 +647,6 @@
   </si>
   <si>
     <t>32,62%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
   </si>
   <si>
     <t>39,41%</t>
@@ -1073,7 +1067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380BFAE5-6131-4260-B7D5-10385E899C9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6AA732-34E7-48E3-AD8C-168232C88101}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1818,7 +1812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9CE6C5-A2AC-4777-8E65-9D096C0B0153}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228C3E9D-27E0-4722-95AE-776352E45224}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2569,7 +2563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B73661-4322-487C-8844-949CF1E5AC0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0868CBB8-62F3-4139-822E-A842CCE15668}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3176,10 +3170,10 @@
         <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>163</v>
@@ -3188,13 +3182,13 @@
         <v>112315</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3203,13 @@
         <v>33351</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -3224,13 +3218,13 @@
         <v>39694</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -3239,13 +3233,13 @@
         <v>73045</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
